--- a/healthman-mock/v2/data/classes/马克思主义学院.xlsx
+++ b/healthman-mock/v2/data/classes/马克思主义学院.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -452,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>录入年份</t>
+          <t>年级</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>年级</t>
+          <t>教师工号</t>
         </is>
       </c>
     </row>
@@ -475,12 +474,14 @@
           <t>马克思主义学院</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>2019</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000881</t>
         </is>
       </c>
     </row>
@@ -498,12 +499,14 @@
           <t>马克思主义学院</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>2019</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000999</t>
         </is>
       </c>
     </row>
@@ -521,12 +524,14 @@
           <t>马克思主义学院</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>2020</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000760</t>
         </is>
       </c>
     </row>
@@ -544,12 +549,14 @@
           <t>马克思主义学院</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>2020</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000222</t>
         </is>
       </c>
     </row>
@@ -567,12 +574,14 @@
           <t>马克思主义学院</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>2021</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000340</t>
         </is>
       </c>
     </row>
@@ -590,12 +599,14 @@
           <t>马克思主义学院</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>2021</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000494</t>
         </is>
       </c>
     </row>

--- a/healthman-mock/v2/data/classes/马克思主义学院.xlsx
+++ b/healthman-mock/v2/data/classes/马克思主义学院.xlsx
@@ -50,6 +50,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -481,7 +482,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>000881</t>
+          <t>000150</t>
         </is>
       </c>
     </row>
@@ -506,7 +507,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>000999</t>
+          <t>000040</t>
         </is>
       </c>
     </row>
@@ -531,7 +532,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>000760</t>
+          <t>000173</t>
         </is>
       </c>
     </row>
@@ -556,7 +557,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>000222</t>
+          <t>000010</t>
         </is>
       </c>
     </row>
@@ -581,7 +582,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>000340</t>
+          <t>000152</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>000494</t>
+          <t>000079</t>
         </is>
       </c>
     </row>
